--- a/Report.xlsx
+++ b/Report.xlsx
@@ -41,10 +41,10 @@
     <x:t>Nimi</x:t>
   </x:si>
   <x:si>
+    <x:t>DE22 7002 0270 0654 7932 98</x:t>
+  </x:si>
+  <x:si>
     <x:t>42.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE209719082</x:t>
   </x:si>
   <x:si>
     <x:t>SP Nature</x:t>
@@ -423,10 +423,10 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -41,10 +41,10 @@
     <x:t>Nimi</x:t>
   </x:si>
   <x:si>
-    <x:t>DE22 7002 0270 0654 7932 98</x:t>
-  </x:si>
-  <x:si>
     <x:t>42.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-04-20</x:t>
   </x:si>
   <x:si>
     <x:t>SP Nature</x:t>
@@ -423,10 +423,10 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
